--- a/jpcore-r4/feature/swg-diagnosticreport-cardinality/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg-diagnosticreport-cardinality/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11879" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11878" uniqueCount="1241">
   <si>
     <t>Property</t>
   </si>
@@ -2444,13 +2444,11 @@
     <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
   </si>
   <si>
-    <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。</t>
-  </si>
-  <si>
-    <t>Code for a known / defined timing pattern.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
+    <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。  
+【JP Core仕様】頓用指示時にはJAMI処方・注射オーダ標準用法規格の表6 イベント区分、イベント詳細区分(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionJAMI_CS”)を推奨するが、MERIT-9 処方オーダ 表5 頓用指示(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionMERIT9_CS”) を使用してもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageInjection_VS</t>
   </si>
   <si>
     <t>Timing.code</t>
@@ -18894,29 +18892,27 @@
       <c r="W129" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="X129" t="s" s="2">
+      <c r="X129" s="2"/>
+      <c r="Y129" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="Y129" t="s" s="2">
+      <c r="Z129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE129" t="s" s="2">
         <v>778</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>78</v>
@@ -18937,7 +18933,7 @@
         <v>80</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>80</v>
@@ -18948,7 +18944,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -18974,13 +18970,13 @@
         <v>287</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>784</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -19030,7 +19026,7 @@
         <v>80</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>78</v>
@@ -19051,18 +19047,18 @@
         <v>80</v>
       </c>
       <c r="AL130" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN130" t="s" s="2">
         <v>786</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>787</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -19088,16 +19084,16 @@
         <v>188</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>789</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>790</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>791</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>792</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>80</v>
@@ -19126,25 +19122,25 @@
       </c>
       <c r="X131" s="2"/>
       <c r="Y131" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE131" t="s" s="2">
         <v>793</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>794</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>78</v>
@@ -19165,18 +19161,18 @@
         <v>80</v>
       </c>
       <c r="AL131" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN131" t="s" s="2">
         <v>795</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>796</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -19288,7 +19284,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -19402,7 +19398,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -19428,10 +19424,10 @@
         <v>317</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>800</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>801</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>585</v>
@@ -19518,7 +19514,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -19630,7 +19626,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -19744,7 +19740,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -19860,7 +19856,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -19974,7 +19970,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -20090,7 +20086,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -20206,7 +20202,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -20322,7 +20318,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -20438,7 +20434,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -20464,16 +20460,16 @@
         <v>188</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="L143" t="s" s="2">
+      <c r="M143" t="s" s="2">
         <v>812</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>813</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>80</v>
@@ -20502,25 +20498,25 @@
       </c>
       <c r="X143" s="2"/>
       <c r="Y143" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE143" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>78</v>
@@ -20541,18 +20537,18 @@
         <v>80</v>
       </c>
       <c r="AL143" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN143" t="s" s="2">
         <v>817</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>818</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -20664,7 +20660,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -20778,7 +20774,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -20804,10 +20800,10 @@
         <v>317</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M146" t="s" s="2">
         <v>585</v>
@@ -20894,7 +20890,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -21006,7 +21002,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -21120,7 +21116,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -21236,7 +21232,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -21350,7 +21346,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -21466,7 +21462,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -21582,7 +21578,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -21698,7 +21694,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -21724,10 +21720,10 @@
         <v>90</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>831</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>832</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>366</v>
@@ -21814,7 +21810,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21840,16 +21836,16 @@
         <v>188</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="L155" t="s" s="2">
+      <c r="M155" t="s" s="2">
         <v>835</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>837</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>80</v>
@@ -21877,28 +21873,28 @@
         <v>255</v>
       </c>
       <c r="X155" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="Y155" t="s" s="2">
         <v>838</v>
       </c>
-      <c r="Y155" t="s" s="2">
+      <c r="Z155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE155" t="s" s="2">
         <v>839</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>840</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>78</v>
@@ -21919,18 +21915,18 @@
         <v>80</v>
       </c>
       <c r="AL155" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="AM155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN155" t="s" s="2">
         <v>841</v>
-      </c>
-      <c r="AM155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN155" t="s" s="2">
-        <v>842</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -22042,7 +22038,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -22156,7 +22152,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -22182,13 +22178,13 @@
         <v>317</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>321</v>
@@ -22270,10 +22266,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C159" t="s" s="2">
         <v>80</v>
@@ -22298,10 +22294,10 @@
         <v>317</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>848</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="M159" t="s" s="2">
         <v>585</v>
@@ -22336,7 +22332,7 @@
       </c>
       <c r="X159" s="2"/>
       <c r="Y159" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>80</v>
@@ -22386,7 +22382,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -22498,7 +22494,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -22612,7 +22608,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -22638,10 +22634,10 @@
         <v>102</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>854</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="M162" t="s" s="2">
         <v>590</v>
@@ -22654,7 +22650,7 @@
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="R162" t="s" s="2">
         <v>80</v>
@@ -22728,7 +22724,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -22842,7 +22838,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -22868,10 +22864,10 @@
         <v>108</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="L164" t="s" s="2">
         <v>859</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="M164" t="s" s="2">
         <v>565</v>
@@ -22958,7 +22954,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -22984,10 +22980,10 @@
         <v>90</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>862</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>863</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>565</v>
@@ -23074,7 +23070,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -23190,10 +23186,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C167" t="s" s="2">
         <v>80</v>
@@ -23218,10 +23214,10 @@
         <v>317</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="M167" t="s" s="2">
         <v>585</v>
@@ -23256,7 +23252,7 @@
       </c>
       <c r="X167" s="2"/>
       <c r="Y167" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>80</v>
@@ -23306,7 +23302,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -23418,7 +23414,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -23532,7 +23528,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -23558,10 +23554,10 @@
         <v>102</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>590</v>
@@ -23574,7 +23570,7 @@
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="R170" t="s" s="2">
         <v>80</v>
@@ -23648,7 +23644,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -23762,7 +23758,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -23788,10 +23784,10 @@
         <v>108</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>871</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>872</v>
       </c>
       <c r="M172" t="s" s="2">
         <v>565</v>
@@ -23878,7 +23874,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -23904,10 +23900,10 @@
         <v>90</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>873</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>874</v>
       </c>
       <c r="M173" t="s" s="2">
         <v>565</v>
@@ -23994,7 +23990,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -24110,7 +24106,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -24136,10 +24132,10 @@
         <v>90</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="L175" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>877</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>366</v>
@@ -24226,7 +24222,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -24252,10 +24248,10 @@
         <v>629</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="L176" t="s" s="2">
         <v>879</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>880</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -24306,7 +24302,7 @@
         <v>80</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>78</v>
@@ -24333,12 +24329,12 @@
         <v>80</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -24450,7 +24446,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -24564,7 +24560,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -24590,14 +24586,14 @@
         <v>188</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>886</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>887</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>80</v>
@@ -24625,28 +24621,28 @@
         <v>255</v>
       </c>
       <c r="X179" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="Y179" t="s" s="2">
         <v>889</v>
       </c>
-      <c r="Y179" t="s" s="2">
+      <c r="Z179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE179" t="s" s="2">
         <v>890</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>891</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>78</v>
@@ -24673,12 +24669,12 @@
         <v>80</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -24701,19 +24697,19 @@
         <v>80</v>
       </c>
       <c r="J180" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="K180" t="s" s="2">
         <v>894</v>
       </c>
-      <c r="K180" t="s" s="2">
+      <c r="L180" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="M180" t="s" s="2">
         <v>895</v>
       </c>
-      <c r="L180" t="s" s="2">
-        <v>895</v>
-      </c>
-      <c r="M180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>897</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>80</v>
@@ -24762,7 +24758,7 @@
         <v>80</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>78</v>
@@ -24774,27 +24770,27 @@
         <v>144</v>
       </c>
       <c r="AI180" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL180" t="s" s="2">
         <v>899</v>
       </c>
-      <c r="AJ180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL180" t="s" s="2">
+      <c r="AM180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN180" t="s" s="2">
         <v>900</v>
-      </c>
-      <c r="AM180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN180" t="s" s="2">
-        <v>901</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -24906,7 +24902,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -25020,7 +25016,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -25046,10 +25042,10 @@
         <v>651</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>653</v>
@@ -25136,7 +25132,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -25165,7 +25161,7 @@
         <v>659</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
@@ -25252,7 +25248,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -25278,10 +25274,10 @@
         <v>90</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="L185" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>909</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
@@ -25366,7 +25362,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -25392,10 +25388,10 @@
         <v>102</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="L186" t="s" s="2">
         <v>911</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>912</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
@@ -25480,7 +25476,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -25596,7 +25592,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -25619,19 +25615,19 @@
         <v>89</v>
       </c>
       <c r="J188" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="K188" t="s" s="2">
         <v>915</v>
       </c>
-      <c r="K188" t="s" s="2">
+      <c r="L188" t="s" s="2">
         <v>916</v>
       </c>
-      <c r="L188" t="s" s="2">
+      <c r="M188" t="s" s="2">
         <v>917</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>918</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>919</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>80</v>
@@ -25680,7 +25676,7 @@
         <v>80</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>78</v>
@@ -25701,18 +25697,18 @@
         <v>80</v>
       </c>
       <c r="AL188" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="AM188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN188" t="s" s="2">
         <v>921</v>
-      </c>
-      <c r="AM188" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN188" t="s" s="2">
-        <v>922</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -25824,7 +25820,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -25938,7 +25934,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25961,13 +25957,13 @@
         <v>89</v>
       </c>
       <c r="J191" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="K191" t="s" s="2">
         <v>926</v>
       </c>
-      <c r="K191" t="s" s="2">
-        <v>927</v>
-      </c>
       <c r="L191" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -26018,7 +26014,7 @@
         <v>80</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>78</v>
@@ -26039,7 +26035,7 @@
         <v>80</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>80</v>
@@ -26050,7 +26046,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -26162,7 +26158,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -26276,7 +26272,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -26302,10 +26298,10 @@
         <v>651</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="M194" t="s" s="2">
         <v>653</v>
@@ -26392,7 +26388,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -26508,7 +26504,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -26534,10 +26530,10 @@
         <v>90</v>
       </c>
       <c r="K196" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="L196" t="s" s="2">
         <v>935</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>936</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
@@ -26622,7 +26618,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -26648,10 +26644,10 @@
         <v>102</v>
       </c>
       <c r="K197" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="L197" t="s" s="2">
         <v>938</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>939</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
@@ -26736,7 +26732,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -26762,10 +26758,10 @@
         <v>108</v>
       </c>
       <c r="K198" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="L198" t="s" s="2">
         <v>941</v>
-      </c>
-      <c r="L198" t="s" s="2">
-        <v>942</v>
       </c>
       <c r="M198" t="s" s="2">
         <v>687</v>
@@ -26852,7 +26848,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -26875,13 +26871,13 @@
         <v>89</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -26932,7 +26928,7 @@
         <v>80</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>78</v>
@@ -26953,7 +26949,7 @@
         <v>80</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>80</v>
@@ -26964,7 +26960,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -27076,7 +27072,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -27190,7 +27186,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -27216,10 +27212,10 @@
         <v>651</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M202" t="s" s="2">
         <v>653</v>
@@ -27306,7 +27302,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -27422,7 +27418,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -27448,10 +27444,10 @@
         <v>90</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="L204" t="s" s="2">
         <v>952</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>953</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
@@ -27536,7 +27532,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -27562,10 +27558,10 @@
         <v>102</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="L205" t="s" s="2">
         <v>911</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>912</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
@@ -27650,7 +27646,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -27676,10 +27672,10 @@
         <v>108</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="L206" t="s" s="2">
         <v>941</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>942</v>
       </c>
       <c r="M206" t="s" s="2">
         <v>687</v>
@@ -27766,7 +27762,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -27789,19 +27785,19 @@
         <v>89</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="K207" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="L207" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="M207" t="s" s="2">
         <v>957</v>
       </c>
-      <c r="L207" t="s" s="2">
-        <v>957</v>
-      </c>
-      <c r="M207" t="s" s="2">
+      <c r="N207" t="s" s="2">
         <v>958</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>959</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>80</v>
@@ -27850,7 +27846,7 @@
         <v>80</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>78</v>
@@ -27871,18 +27867,18 @@
         <v>80</v>
       </c>
       <c r="AL207" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="AM207" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN207" t="s" s="2">
         <v>961</v>
-      </c>
-      <c r="AM207" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN207" t="s" s="2">
-        <v>962</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -27994,7 +27990,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -28108,7 +28104,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -28131,16 +28127,16 @@
         <v>89</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K210" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="L210" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="M210" t="s" s="2">
         <v>966</v>
-      </c>
-      <c r="L210" t="s" s="2">
-        <v>966</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>967</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" t="s" s="2">
@@ -28190,7 +28186,7 @@
         <v>80</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>78</v>
@@ -28211,7 +28207,7 @@
         <v>80</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AM210" t="s" s="2">
         <v>80</v>
@@ -28222,7 +28218,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -28334,7 +28330,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -28448,7 +28444,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -28474,13 +28470,13 @@
         <v>651</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L213" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L213" t="s" s="2">
+      <c r="M213" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="N213" t="s" s="2">
         <v>654</v>
@@ -28564,7 +28560,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -28590,16 +28586,16 @@
         <v>108</v>
       </c>
       <c r="K214" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L214" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L214" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M214" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>80</v>
@@ -28682,7 +28678,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28708,16 +28704,16 @@
         <v>90</v>
       </c>
       <c r="K215" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L215" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="L215" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="M215" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>80</v>
@@ -28798,7 +28794,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -28824,16 +28820,16 @@
         <v>102</v>
       </c>
       <c r="K216" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L216" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="L216" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="M216" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>80</v>
@@ -28862,7 +28858,7 @@
       </c>
       <c r="X216" s="2"/>
       <c r="Y216" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Z216" t="s" s="2">
         <v>80</v>
@@ -28912,7 +28908,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -28938,16 +28934,16 @@
         <v>108</v>
       </c>
       <c r="K217" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L217" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L217" t="s" s="2">
+      <c r="M217" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M217" t="s" s="2">
+      <c r="N217" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>80</v>
@@ -29028,7 +29024,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -29051,16 +29047,16 @@
         <v>89</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
@@ -29110,7 +29106,7 @@
         <v>80</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>78</v>
@@ -29131,7 +29127,7 @@
         <v>80</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AM218" t="s" s="2">
         <v>80</v>
@@ -29142,7 +29138,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -29254,7 +29250,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -29368,7 +29364,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -29394,13 +29390,13 @@
         <v>651</v>
       </c>
       <c r="K221" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L221" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L221" t="s" s="2">
+      <c r="M221" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="N221" t="s" s="2">
         <v>654</v>
@@ -29484,7 +29480,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -29510,16 +29506,16 @@
         <v>108</v>
       </c>
       <c r="K222" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L222" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M222" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>80</v>
@@ -29602,7 +29598,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -29628,16 +29624,16 @@
         <v>90</v>
       </c>
       <c r="K223" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L223" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="M223" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>80</v>
@@ -29718,7 +29714,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -29744,16 +29740,16 @@
         <v>102</v>
       </c>
       <c r="K224" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L224" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="L224" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="M224" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>80</v>
@@ -29782,7 +29778,7 @@
       </c>
       <c r="X224" s="2"/>
       <c r="Y224" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Z224" t="s" s="2">
         <v>80</v>
@@ -29832,7 +29828,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29858,16 +29854,16 @@
         <v>108</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L225" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L225" t="s" s="2">
+      <c r="M225" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M225" t="s" s="2">
+      <c r="N225" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>80</v>
@@ -29948,7 +29944,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -29971,19 +29967,19 @@
         <v>89</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K226" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="M226" t="s" s="2">
         <v>1002</v>
       </c>
-      <c r="L226" t="s" s="2">
-        <v>1002</v>
-      </c>
-      <c r="M226" t="s" s="2">
+      <c r="N226" t="s" s="2">
         <v>1003</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>1004</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>80</v>
@@ -30032,7 +30028,7 @@
         <v>80</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>78</v>
@@ -30053,7 +30049,7 @@
         <v>80</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AM226" t="s" s="2">
         <v>80</v>
@@ -30064,7 +30060,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -30176,7 +30172,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -30290,7 +30286,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -30316,13 +30312,13 @@
         <v>651</v>
       </c>
       <c r="K229" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L229" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L229" t="s" s="2">
+      <c r="M229" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="N229" t="s" s="2">
         <v>654</v>
@@ -30406,7 +30402,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -30432,16 +30428,16 @@
         <v>108</v>
       </c>
       <c r="K230" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L230" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L230" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M230" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>80</v>
@@ -30524,7 +30520,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -30550,16 +30546,16 @@
         <v>90</v>
       </c>
       <c r="K231" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L231" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="L231" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="M231" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>80</v>
@@ -30640,7 +30636,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -30666,16 +30662,16 @@
         <v>102</v>
       </c>
       <c r="K232" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L232" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="L232" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="M232" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>80</v>
@@ -30704,7 +30700,7 @@
       </c>
       <c r="X232" s="2"/>
       <c r="Y232" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Z232" t="s" s="2">
         <v>80</v>
@@ -30754,7 +30750,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -30780,16 +30776,16 @@
         <v>108</v>
       </c>
       <c r="K233" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L233" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L233" t="s" s="2">
+      <c r="M233" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M233" t="s" s="2">
+      <c r="N233" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>80</v>
@@ -30870,7 +30866,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -30893,19 +30889,19 @@
         <v>89</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="L234" t="s" s="2">
         <v>1015</v>
       </c>
-      <c r="L234" t="s" s="2">
+      <c r="M234" t="s" s="2">
+        <v>966</v>
+      </c>
+      <c r="N234" t="s" s="2">
         <v>1016</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>967</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>1017</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>80</v>
@@ -30954,7 +30950,7 @@
         <v>80</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>78</v>
@@ -30975,7 +30971,7 @@
         <v>80</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>80</v>
@@ -30986,7 +30982,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -31098,7 +31094,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -31212,7 +31208,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -31238,13 +31234,13 @@
         <v>651</v>
       </c>
       <c r="K237" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L237" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L237" t="s" s="2">
+      <c r="M237" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="N237" t="s" s="2">
         <v>654</v>
@@ -31328,7 +31324,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -31354,16 +31350,16 @@
         <v>108</v>
       </c>
       <c r="K238" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L238" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L238" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M238" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>80</v>
@@ -31446,7 +31442,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -31472,16 +31468,16 @@
         <v>90</v>
       </c>
       <c r="K239" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L239" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="L239" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="M239" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O239" t="s" s="2">
         <v>80</v>
@@ -31562,7 +31558,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -31588,16 +31584,16 @@
         <v>102</v>
       </c>
       <c r="K240" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L240" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="L240" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="M240" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>80</v>
@@ -31626,7 +31622,7 @@
       </c>
       <c r="X240" s="2"/>
       <c r="Y240" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Z240" t="s" s="2">
         <v>80</v>
@@ -31676,7 +31672,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -31702,16 +31698,16 @@
         <v>108</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L241" t="s" s="2">
+      <c r="M241" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M241" t="s" s="2">
+      <c r="N241" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>80</v>
@@ -31792,7 +31788,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31815,13 +31811,13 @@
         <v>80</v>
       </c>
       <c r="J242" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="K242" t="s" s="2">
         <v>1027</v>
       </c>
-      <c r="K242" t="s" s="2">
+      <c r="L242" t="s" s="2">
         <v>1028</v>
-      </c>
-      <c r="L242" t="s" s="2">
-        <v>1029</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -31872,7 +31868,7 @@
         <v>80</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>78</v>
@@ -31890,10 +31886,10 @@
         <v>80</v>
       </c>
       <c r="AK242" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="AL242" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="AL242" t="s" s="2">
-        <v>1031</v>
       </c>
       <c r="AM242" t="s" s="2">
         <v>80</v>
@@ -31904,7 +31900,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -32016,7 +32012,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -32126,10 +32122,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="B245" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="B245" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="C245" t="s" s="2">
         <v>80</v>
@@ -32151,13 +32147,13 @@
         <v>80</v>
       </c>
       <c r="J245" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="K245" t="s" s="2">
         <v>1035</v>
       </c>
-      <c r="K245" t="s" s="2">
+      <c r="L245" t="s" s="2">
         <v>1036</v>
-      </c>
-      <c r="L245" t="s" s="2">
-        <v>1037</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
@@ -32240,7 +32236,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -32352,7 +32348,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -32464,7 +32460,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -32490,13 +32486,13 @@
         <v>102</v>
       </c>
       <c r="K248" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L248" t="s" s="2">
         <v>1041</v>
       </c>
-      <c r="L248" t="s" s="2">
+      <c r="M248" t="s" s="2">
         <v>1042</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>1043</v>
       </c>
       <c r="N248" s="2"/>
       <c r="O248" t="s" s="2">
@@ -32504,49 +32500,49 @@
       </c>
       <c r="P248" s="2"/>
       <c r="Q248" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="R248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE248" t="s" s="2">
         <v>1044</v>
-      </c>
-      <c r="R248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE248" t="s" s="2">
-        <v>1045</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>88</v>
@@ -32578,7 +32574,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -32604,10 +32600,10 @@
         <v>188</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
@@ -32656,7 +32652,7 @@
         <v>305</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>78</v>
@@ -32688,10 +32684,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C250" t="s" s="2">
         <v>80</v>
@@ -32716,10 +32712,10 @@
         <v>188</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="L250" t="s" s="2">
         <v>1050</v>
-      </c>
-      <c r="L250" t="s" s="2">
-        <v>1051</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" s="2"/>
@@ -32770,7 +32766,7 @@
         <v>80</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>78</v>
@@ -32802,7 +32798,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -32914,7 +32910,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -33028,7 +33024,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -33054,13 +33050,13 @@
         <v>317</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N253" t="s" s="2">
         <v>321</v>
@@ -33092,7 +33088,7 @@
       </c>
       <c r="X253" s="2"/>
       <c r="Y253" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Z253" t="s" s="2">
         <v>80</v>
@@ -33142,7 +33138,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -33168,13 +33164,13 @@
         <v>90</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>1057</v>
       </c>
-      <c r="L254" t="s" s="2">
+      <c r="M254" t="s" s="2">
         <v>1058</v>
-      </c>
-      <c r="M254" t="s" s="2">
-        <v>1059</v>
       </c>
       <c r="N254" t="s" s="2">
         <v>367</v>
@@ -33258,10 +33254,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C255" t="s" s="2">
         <v>80</v>
@@ -33283,13 +33279,13 @@
         <v>80</v>
       </c>
       <c r="J255" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="K255" t="s" s="2">
         <v>1061</v>
       </c>
-      <c r="K255" t="s" s="2">
-        <v>1062</v>
-      </c>
       <c r="L255" t="s" s="2">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
@@ -33372,7 +33368,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -33488,7 +33484,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -33511,16 +33507,16 @@
         <v>80</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="K257" t="s" s="2">
+        <v>1064</v>
+      </c>
+      <c r="L257" t="s" s="2">
         <v>1065</v>
       </c>
-      <c r="L257" t="s" s="2">
+      <c r="M257" t="s" s="2">
         <v>1066</v>
-      </c>
-      <c r="M257" t="s" s="2">
-        <v>1067</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" t="s" s="2">
@@ -33570,7 +33566,7 @@
         <v>80</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>78</v>
@@ -33591,7 +33587,7 @@
         <v>80</v>
       </c>
       <c r="AL257" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AM257" t="s" s="2">
         <v>80</v>
@@ -33602,7 +33598,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -33714,7 +33710,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -33828,7 +33824,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33944,7 +33940,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -33967,16 +33963,16 @@
         <v>80</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>1073</v>
       </c>
-      <c r="L261" t="s" s="2">
-        <v>1074</v>
-      </c>
       <c r="M261" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" t="s" s="2">
@@ -34026,7 +34022,7 @@
         <v>80</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>78</v>
@@ -34047,7 +34043,7 @@
         <v>80</v>
       </c>
       <c r="AL261" t="s" s="2">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AM261" t="s" s="2">
         <v>80</v>
@@ -34058,7 +34054,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -34170,7 +34166,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -34284,7 +34280,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -34310,13 +34306,13 @@
         <v>651</v>
       </c>
       <c r="K264" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L264" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L264" t="s" s="2">
+      <c r="M264" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="M264" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="N264" t="s" s="2">
         <v>654</v>
@@ -34400,7 +34396,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -34426,16 +34422,16 @@
         <v>108</v>
       </c>
       <c r="K265" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L265" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L265" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M265" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>80</v>
@@ -34518,7 +34514,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -34544,16 +34540,16 @@
         <v>90</v>
       </c>
       <c r="K266" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L266" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="L266" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="M266" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>80</v>
@@ -34634,7 +34630,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -34660,16 +34656,16 @@
         <v>102</v>
       </c>
       <c r="K267" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L267" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="L267" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="M267" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>80</v>
@@ -34698,7 +34694,7 @@
       </c>
       <c r="X267" s="2"/>
       <c r="Y267" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Z267" t="s" s="2">
         <v>80</v>
@@ -34748,7 +34744,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -34774,16 +34770,16 @@
         <v>108</v>
       </c>
       <c r="K268" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L268" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L268" t="s" s="2">
+      <c r="M268" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M268" t="s" s="2">
+      <c r="N268" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N268" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>80</v>
@@ -34864,7 +34860,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -34890,13 +34886,13 @@
         <v>645</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>1084</v>
       </c>
-      <c r="L269" t="s" s="2">
-        <v>1085</v>
-      </c>
       <c r="M269" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N269" s="2"/>
       <c r="O269" t="s" s="2">
@@ -34946,7 +34942,7 @@
         <v>80</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>78</v>
@@ -34967,7 +34963,7 @@
         <v>80</v>
       </c>
       <c r="AL269" t="s" s="2">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AM269" t="s" s="2">
         <v>80</v>
@@ -34978,7 +34974,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -35090,7 +35086,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -35204,7 +35200,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -35230,13 +35226,13 @@
         <v>651</v>
       </c>
       <c r="K272" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L272" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L272" t="s" s="2">
+      <c r="M272" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="M272" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="N272" t="s" s="2">
         <v>654</v>
@@ -35320,7 +35316,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -35346,16 +35342,16 @@
         <v>108</v>
       </c>
       <c r="K273" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L273" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L273" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M273" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>80</v>
@@ -35438,7 +35434,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -35464,16 +35460,16 @@
         <v>90</v>
       </c>
       <c r="K274" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L274" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="L274" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="M274" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>80</v>
@@ -35554,7 +35550,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -35580,16 +35576,16 @@
         <v>102</v>
       </c>
       <c r="K275" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L275" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="L275" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="M275" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>80</v>
@@ -35670,7 +35666,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -35696,16 +35692,16 @@
         <v>108</v>
       </c>
       <c r="K276" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L276" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L276" t="s" s="2">
+      <c r="M276" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M276" t="s" s="2">
+      <c r="N276" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N276" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>80</v>
@@ -35786,7 +35782,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -35812,13 +35808,13 @@
         <v>645</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="L277" t="s" s="2">
         <v>1095</v>
       </c>
-      <c r="L277" t="s" s="2">
-        <v>1096</v>
-      </c>
       <c r="M277" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N277" s="2"/>
       <c r="O277" t="s" s="2">
@@ -35868,7 +35864,7 @@
         <v>80</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>78</v>
@@ -35889,7 +35885,7 @@
         <v>80</v>
       </c>
       <c r="AL277" t="s" s="2">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AM277" t="s" s="2">
         <v>80</v>
@@ -35900,7 +35896,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -36012,7 +36008,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -36126,7 +36122,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -36152,13 +36148,13 @@
         <v>651</v>
       </c>
       <c r="K280" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L280" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L280" t="s" s="2">
+      <c r="M280" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="M280" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="N280" t="s" s="2">
         <v>654</v>
@@ -36242,7 +36238,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -36268,16 +36264,16 @@
         <v>108</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L281" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L281" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M281" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>80</v>
@@ -36360,7 +36356,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -36386,16 +36382,16 @@
         <v>90</v>
       </c>
       <c r="K282" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L282" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="L282" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="M282" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>80</v>
@@ -36476,7 +36472,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -36502,16 +36498,16 @@
         <v>102</v>
       </c>
       <c r="K283" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L283" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="L283" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="M283" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>80</v>
@@ -36592,7 +36588,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -36618,16 +36614,16 @@
         <v>108</v>
       </c>
       <c r="K284" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L284" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L284" t="s" s="2">
+      <c r="M284" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M284" t="s" s="2">
+      <c r="N284" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N284" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>80</v>
@@ -36708,7 +36704,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -36734,16 +36730,16 @@
         <v>217</v>
       </c>
       <c r="K285" t="s" s="2">
+        <v>1104</v>
+      </c>
+      <c r="L285" t="s" s="2">
         <v>1105</v>
       </c>
-      <c r="L285" t="s" s="2">
+      <c r="M285" t="s" s="2">
         <v>1106</v>
       </c>
-      <c r="M285" t="s" s="2">
+      <c r="N285" t="s" s="2">
         <v>1107</v>
-      </c>
-      <c r="N285" t="s" s="2">
-        <v>1108</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>80</v>
@@ -36792,7 +36788,7 @@
         <v>80</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>78</v>
@@ -36810,10 +36806,10 @@
         <v>80</v>
       </c>
       <c r="AK285" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="AL285" t="s" s="2">
         <v>1109</v>
-      </c>
-      <c r="AL285" t="s" s="2">
-        <v>1110</v>
       </c>
       <c r="AM285" t="s" s="2">
         <v>80</v>
@@ -36824,7 +36820,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -36936,7 +36932,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -37050,7 +37046,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -37076,13 +37072,13 @@
         <v>428</v>
       </c>
       <c r="K288" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="L288" t="s" s="2">
         <v>1114</v>
       </c>
-      <c r="L288" t="s" s="2">
+      <c r="M288" t="s" s="2">
         <v>1115</v>
-      </c>
-      <c r="M288" t="s" s="2">
-        <v>1116</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" t="s" s="2">
@@ -37132,16 +37128,16 @@
         <v>80</v>
       </c>
       <c r="AE288" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="AF288" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG288" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH288" t="s" s="2">
         <v>1117</v>
-      </c>
-      <c r="AF288" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG288" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH288" t="s" s="2">
-        <v>1118</v>
       </c>
       <c r="AI288" t="s" s="2">
         <v>100</v>
@@ -37153,18 +37149,18 @@
         <v>80</v>
       </c>
       <c r="AL288" t="s" s="2">
+        <v>1118</v>
+      </c>
+      <c r="AM288" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN288" t="s" s="2">
         <v>1119</v>
-      </c>
-      <c r="AM288" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN288" t="s" s="2">
-        <v>1120</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -37190,66 +37186,66 @@
         <v>428</v>
       </c>
       <c r="K289" t="s" s="2">
+        <v>1121</v>
+      </c>
+      <c r="L289" t="s" s="2">
         <v>1122</v>
       </c>
-      <c r="L289" t="s" s="2">
+      <c r="M289" t="s" s="2">
         <v>1123</v>
-      </c>
-      <c r="M289" t="s" s="2">
-        <v>1124</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P289" t="s" s="2">
+        <v>1124</v>
+      </c>
+      <c r="Q289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE289" t="s" s="2">
         <v>1125</v>
       </c>
-      <c r="Q289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE289" t="s" s="2">
-        <v>1126</v>
-      </c>
       <c r="AF289" t="s" s="2">
         <v>78</v>
       </c>
@@ -37257,7 +37253,7 @@
         <v>88</v>
       </c>
       <c r="AH289" t="s" s="2">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AI289" t="s" s="2">
         <v>100</v>
@@ -37269,18 +37265,18 @@
         <v>80</v>
       </c>
       <c r="AL289" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="AM289" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN289" t="s" s="2">
         <v>1127</v>
-      </c>
-      <c r="AM289" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN289" t="s" s="2">
-        <v>1128</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -37306,13 +37302,13 @@
         <v>768</v>
       </c>
       <c r="K290" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="L290" t="s" s="2">
         <v>1130</v>
       </c>
-      <c r="L290" t="s" s="2">
+      <c r="M290" t="s" s="2">
         <v>1131</v>
-      </c>
-      <c r="M290" t="s" s="2">
-        <v>1132</v>
       </c>
       <c r="N290" s="2"/>
       <c r="O290" t="s" s="2">
@@ -37362,7 +37358,7 @@
         <v>80</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>78</v>
@@ -37380,21 +37376,21 @@
         <v>80</v>
       </c>
       <c r="AK290" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="AL290" t="s" s="2">
         <v>1133</v>
       </c>
-      <c r="AL290" t="s" s="2">
+      <c r="AM290" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN290" t="s" s="2">
         <v>1134</v>
-      </c>
-      <c r="AM290" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN290" t="s" s="2">
-        <v>1135</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -37417,16 +37413,16 @@
         <v>80</v>
       </c>
       <c r="J291" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K291" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="L291" t="s" s="2">
         <v>1137</v>
       </c>
-      <c r="L291" t="s" s="2">
-        <v>1138</v>
-      </c>
       <c r="M291" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N291" s="2"/>
       <c r="O291" t="s" s="2">
@@ -37476,7 +37472,7 @@
         <v>80</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>78</v>
@@ -37494,21 +37490,21 @@
         <v>80</v>
       </c>
       <c r="AK291" t="s" s="2">
+        <v>1138</v>
+      </c>
+      <c r="AL291" t="s" s="2">
         <v>1139</v>
       </c>
-      <c r="AL291" t="s" s="2">
+      <c r="AM291" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN291" t="s" s="2">
         <v>1140</v>
-      </c>
-      <c r="AM291" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN291" t="s" s="2">
-        <v>1141</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -37620,7 +37616,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -37734,7 +37730,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -37760,13 +37756,13 @@
         <v>651</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="N294" t="s" s="2">
         <v>654</v>
@@ -37850,7 +37846,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -37876,16 +37872,16 @@
         <v>108</v>
       </c>
       <c r="K295" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L295" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L295" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M295" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>80</v>
@@ -37968,7 +37964,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -37994,16 +37990,16 @@
         <v>90</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="M296" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>80</v>
@@ -38084,7 +38080,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -38110,16 +38106,16 @@
         <v>102</v>
       </c>
       <c r="K297" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="L297" t="s" s="2">
         <v>1150</v>
-      </c>
-      <c r="L297" t="s" s="2">
-        <v>1151</v>
       </c>
       <c r="M297" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>80</v>
@@ -38129,7 +38125,7 @@
         <v>80</v>
       </c>
       <c r="R297" t="s" s="2">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="S297" t="s" s="2">
         <v>80</v>
@@ -38200,7 +38196,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -38226,16 +38222,16 @@
         <v>108</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="M298" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="N298" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N298" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>80</v>
@@ -38316,7 +38312,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -38342,13 +38338,13 @@
         <v>645</v>
       </c>
       <c r="K299" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="L299" t="s" s="2">
         <v>1156</v>
       </c>
-      <c r="L299" t="s" s="2">
+      <c r="M299" t="s" s="2">
         <v>1157</v>
-      </c>
-      <c r="M299" t="s" s="2">
-        <v>1158</v>
       </c>
       <c r="N299" s="2"/>
       <c r="O299" t="s" s="2">
@@ -38398,7 +38394,7 @@
         <v>80</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>78</v>
@@ -38416,10 +38412,10 @@
         <v>80</v>
       </c>
       <c r="AK299" t="s" s="2">
+        <v>1158</v>
+      </c>
+      <c r="AL299" t="s" s="2">
         <v>1159</v>
-      </c>
-      <c r="AL299" t="s" s="2">
-        <v>1160</v>
       </c>
       <c r="AM299" t="s" s="2">
         <v>80</v>
@@ -38430,7 +38426,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -38542,7 +38538,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -38656,7 +38652,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -38682,13 +38678,13 @@
         <v>651</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="N302" t="s" s="2">
         <v>654</v>
@@ -38772,7 +38768,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -38798,16 +38794,16 @@
         <v>108</v>
       </c>
       <c r="K303" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L303" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L303" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M303" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>80</v>
@@ -38890,7 +38886,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -38916,16 +38912,16 @@
         <v>90</v>
       </c>
       <c r="K304" t="s" s="2">
+        <v>1165</v>
+      </c>
+      <c r="L304" t="s" s="2">
         <v>1166</v>
-      </c>
-      <c r="L304" t="s" s="2">
-        <v>1167</v>
       </c>
       <c r="M304" t="s" s="2">
         <v>565</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>80</v>
@@ -39006,7 +39002,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -39032,16 +39028,16 @@
         <v>102</v>
       </c>
       <c r="K305" t="s" s="2">
+        <v>1168</v>
+      </c>
+      <c r="L305" t="s" s="2">
         <v>1169</v>
-      </c>
-      <c r="L305" t="s" s="2">
-        <v>1170</v>
       </c>
       <c r="M305" t="s" s="2">
         <v>489</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>80</v>
@@ -39122,7 +39118,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -39148,16 +39144,16 @@
         <v>108</v>
       </c>
       <c r="K306" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="L306" t="s" s="2">
         <v>1172</v>
       </c>
-      <c r="L306" t="s" s="2">
-        <v>1173</v>
-      </c>
       <c r="M306" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="N306" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N306" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>80</v>
@@ -39238,7 +39234,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -39264,10 +39260,10 @@
         <v>224</v>
       </c>
       <c r="K307" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="L307" t="s" s="2">
         <v>1175</v>
-      </c>
-      <c r="L307" t="s" s="2">
-        <v>1176</v>
       </c>
       <c r="M307" t="s" s="2">
         <v>424</v>
@@ -39320,7 +39316,7 @@
         <v>80</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>78</v>
@@ -39341,7 +39337,7 @@
         <v>80</v>
       </c>
       <c r="AL307" t="s" s="2">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AM307" t="s" s="2">
         <v>461</v>
@@ -39352,7 +39348,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -39375,13 +39371,13 @@
         <v>80</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="K308" t="s" s="2">
+        <v>1178</v>
+      </c>
+      <c r="L308" t="s" s="2">
         <v>1179</v>
-      </c>
-      <c r="L308" t="s" s="2">
-        <v>1180</v>
       </c>
       <c r="M308" s="2"/>
       <c r="N308" s="2"/>
@@ -39432,7 +39428,7 @@
         <v>80</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>78</v>
@@ -39450,10 +39446,10 @@
         <v>80</v>
       </c>
       <c r="AK308" t="s" s="2">
+        <v>1180</v>
+      </c>
+      <c r="AL308" t="s" s="2">
         <v>1181</v>
-      </c>
-      <c r="AL308" t="s" s="2">
-        <v>1182</v>
       </c>
       <c r="AM308" t="s" s="2">
         <v>80</v>
@@ -39464,7 +39460,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -39576,7 +39572,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -39690,7 +39686,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -39806,7 +39802,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -39832,13 +39828,13 @@
         <v>188</v>
       </c>
       <c r="K312" t="s" s="2">
+        <v>1186</v>
+      </c>
+      <c r="L312" t="s" s="2">
+        <v>1186</v>
+      </c>
+      <c r="M312" t="s" s="2">
         <v>1187</v>
-      </c>
-      <c r="L312" t="s" s="2">
-        <v>1187</v>
-      </c>
-      <c r="M312" t="s" s="2">
-        <v>1188</v>
       </c>
       <c r="N312" s="2"/>
       <c r="O312" t="s" s="2">
@@ -39868,7 +39864,7 @@
       </c>
       <c r="X312" s="2"/>
       <c r="Y312" t="s" s="2">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Z312" t="s" s="2">
         <v>80</v>
@@ -39886,7 +39882,7 @@
         <v>80</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>88</v>
@@ -39904,21 +39900,21 @@
         <v>80</v>
       </c>
       <c r="AK312" t="s" s="2">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AL312" t="s" s="2">
+        <v>1189</v>
+      </c>
+      <c r="AM312" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN312" t="s" s="2">
         <v>1190</v>
-      </c>
-      <c r="AM312" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN312" t="s" s="2">
-        <v>1191</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -40030,7 +40026,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -40144,7 +40140,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -40170,13 +40166,13 @@
         <v>317</v>
       </c>
       <c r="K315" t="s" s="2">
+        <v>1194</v>
+      </c>
+      <c r="L315" t="s" s="2">
         <v>1195</v>
       </c>
-      <c r="L315" t="s" s="2">
-        <v>1196</v>
-      </c>
       <c r="M315" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="N315" t="s" s="2">
         <v>321</v>
@@ -40260,7 +40256,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -40372,7 +40368,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -40486,7 +40482,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -40512,10 +40508,10 @@
         <v>102</v>
       </c>
       <c r="K318" t="s" s="2">
+        <v>1199</v>
+      </c>
+      <c r="L318" t="s" s="2">
         <v>1200</v>
-      </c>
-      <c r="L318" t="s" s="2">
-        <v>1201</v>
       </c>
       <c r="M318" t="s" s="2">
         <v>330</v>
@@ -40528,7 +40524,7 @@
       </c>
       <c r="P318" s="2"/>
       <c r="Q318" t="s" s="2">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="R318" t="s" s="2">
         <v>80</v>
@@ -40602,7 +40598,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -40716,7 +40712,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -40742,10 +40738,10 @@
         <v>108</v>
       </c>
       <c r="K320" t="s" s="2">
+        <v>1194</v>
+      </c>
+      <c r="L320" t="s" s="2">
         <v>1195</v>
-      </c>
-      <c r="L320" t="s" s="2">
-        <v>1196</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" t="s" s="2">
@@ -40830,7 +40826,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -40856,10 +40852,10 @@
         <v>90</v>
       </c>
       <c r="K321" t="s" s="2">
+        <v>1205</v>
+      </c>
+      <c r="L321" t="s" s="2">
         <v>1206</v>
-      </c>
-      <c r="L321" t="s" s="2">
-        <v>1207</v>
       </c>
       <c r="M321" s="2"/>
       <c r="N321" t="s" s="2">
@@ -40944,7 +40940,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -40970,13 +40966,13 @@
         <v>287</v>
       </c>
       <c r="K322" t="s" s="2">
+        <v>1208</v>
+      </c>
+      <c r="L322" t="s" s="2">
         <v>1209</v>
       </c>
-      <c r="L322" t="s" s="2">
+      <c r="M322" t="s" s="2">
         <v>1210</v>
-      </c>
-      <c r="M322" t="s" s="2">
-        <v>1211</v>
       </c>
       <c r="N322" t="s" s="2">
         <v>359</v>
@@ -41060,7 +41056,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -41086,13 +41082,13 @@
         <v>90</v>
       </c>
       <c r="K323" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="L323" t="s" s="2">
         <v>1057</v>
       </c>
-      <c r="L323" t="s" s="2">
+      <c r="M323" t="s" s="2">
         <v>1058</v>
-      </c>
-      <c r="M323" t="s" s="2">
-        <v>1059</v>
       </c>
       <c r="N323" t="s" s="2">
         <v>367</v>
@@ -41176,7 +41172,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -41202,13 +41198,13 @@
         <v>188</v>
       </c>
       <c r="K324" t="s" s="2">
+        <v>1213</v>
+      </c>
+      <c r="L324" t="s" s="2">
         <v>1214</v>
       </c>
-      <c r="L324" t="s" s="2">
+      <c r="M324" t="s" s="2">
         <v>1215</v>
-      </c>
-      <c r="M324" t="s" s="2">
-        <v>1216</v>
       </c>
       <c r="N324" s="2"/>
       <c r="O324" t="s" s="2">
@@ -41237,11 +41233,11 @@
         <v>255</v>
       </c>
       <c r="X324" t="s" s="2">
+        <v>1216</v>
+      </c>
+      <c r="Y324" t="s" s="2">
         <v>1217</v>
       </c>
-      <c r="Y324" t="s" s="2">
-        <v>1218</v>
-      </c>
       <c r="Z324" t="s" s="2">
         <v>80</v>
       </c>
@@ -41258,7 +41254,7 @@
         <v>80</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>78</v>
@@ -41276,21 +41272,21 @@
         <v>80</v>
       </c>
       <c r="AK324" t="s" s="2">
+        <v>1218</v>
+      </c>
+      <c r="AL324" t="s" s="2">
         <v>1219</v>
       </c>
-      <c r="AL324" t="s" s="2">
+      <c r="AM324" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN324" t="s" s="2">
         <v>1220</v>
-      </c>
-      <c r="AM324" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN324" t="s" s="2">
-        <v>1221</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -41313,13 +41309,13 @@
         <v>80</v>
       </c>
       <c r="J325" t="s" s="2">
+        <v>1222</v>
+      </c>
+      <c r="K325" t="s" s="2">
         <v>1223</v>
       </c>
-      <c r="K325" t="s" s="2">
+      <c r="L325" t="s" s="2">
         <v>1224</v>
-      </c>
-      <c r="L325" t="s" s="2">
-        <v>1225</v>
       </c>
       <c r="M325" t="s" s="2">
         <v>424</v>
@@ -41372,7 +41368,7 @@
         <v>80</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>78</v>
@@ -41387,13 +41383,13 @@
         <v>100</v>
       </c>
       <c r="AJ325" t="s" s="2">
+        <v>1225</v>
+      </c>
+      <c r="AK325" t="s" s="2">
+        <v>1218</v>
+      </c>
+      <c r="AL325" t="s" s="2">
         <v>1226</v>
-      </c>
-      <c r="AK325" t="s" s="2">
-        <v>1219</v>
-      </c>
-      <c r="AL325" t="s" s="2">
-        <v>1227</v>
       </c>
       <c r="AM325" t="s" s="2">
         <v>80</v>
@@ -41404,11 +41400,11 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -41427,16 +41423,16 @@
         <v>80</v>
       </c>
       <c r="J326" t="s" s="2">
+        <v>1229</v>
+      </c>
+      <c r="K326" t="s" s="2">
         <v>1230</v>
       </c>
-      <c r="K326" t="s" s="2">
+      <c r="L326" t="s" s="2">
         <v>1231</v>
       </c>
-      <c r="L326" t="s" s="2">
+      <c r="M326" t="s" s="2">
         <v>1232</v>
-      </c>
-      <c r="M326" t="s" s="2">
-        <v>1233</v>
       </c>
       <c r="N326" s="2"/>
       <c r="O326" t="s" s="2">
@@ -41486,7 +41482,7 @@
         <v>80</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>78</v>
@@ -41507,7 +41503,7 @@
         <v>80</v>
       </c>
       <c r="AL326" t="s" s="2">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AM326" t="s" s="2">
         <v>80</v>
@@ -41518,7 +41514,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -41541,16 +41537,16 @@
         <v>80</v>
       </c>
       <c r="J327" t="s" s="2">
+        <v>1235</v>
+      </c>
+      <c r="K327" t="s" s="2">
         <v>1236</v>
       </c>
-      <c r="K327" t="s" s="2">
+      <c r="L327" t="s" s="2">
         <v>1237</v>
       </c>
-      <c r="L327" t="s" s="2">
+      <c r="M327" t="s" s="2">
         <v>1238</v>
-      </c>
-      <c r="M327" t="s" s="2">
-        <v>1239</v>
       </c>
       <c r="N327" s="2"/>
       <c r="O327" t="s" s="2">
@@ -41600,7 +41596,7 @@
         <v>80</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>78</v>
@@ -41615,13 +41611,13 @@
         <v>100</v>
       </c>
       <c r="AJ327" t="s" s="2">
+        <v>1239</v>
+      </c>
+      <c r="AK327" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL327" t="s" s="2">
         <v>1240</v>
-      </c>
-      <c r="AK327" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL327" t="s" s="2">
-        <v>1241</v>
       </c>
       <c r="AM327" t="s" s="2">
         <v>80</v>
